--- a/output/fit_clients/fit_round_238.xlsx
+++ b/output/fit_clients/fit_round_238.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1839665097.395826</v>
+        <v>2257401763.546857</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09290406409839543</v>
+        <v>0.1132749636752012</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04136719083814944</v>
+        <v>0.02756364081335497</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>919832522.7728171</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1929989440.289978</v>
+        <v>1885003049.233665</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1198685798415351</v>
+        <v>0.1709497982265741</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03787089284122665</v>
+        <v>0.04303369577637071</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>964994749.350404</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4300351474.52054</v>
+        <v>5174478139.58289</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1042753910678187</v>
+        <v>0.1139062515928467</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02379550239166411</v>
+        <v>0.03310809021391245</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>86</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2150175772.699438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3811520647.624428</v>
+        <v>2921657765.908457</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07007016884301023</v>
+        <v>0.0827025622106493</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03131699001806133</v>
+        <v>0.04322320483046271</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1905760339.937531</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2237325943.179373</v>
+        <v>2547821312.09305</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1357917513662032</v>
+        <v>0.1031872324909035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05230172404745897</v>
+        <v>0.03523583623630732</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1118662975.490009</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3026641488.801369</v>
+        <v>2824214006.842903</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06688828330965545</v>
+        <v>0.08905758555976476</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03591115550963325</v>
+        <v>0.04682017193833423</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>74</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1513320706.770724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3657153354.53387</v>
+        <v>3565571932.878582</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1787398888049949</v>
+        <v>0.1984397706832429</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0332980127569039</v>
+        <v>0.0284574594304427</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>76</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1828576801.949028</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1657396602.966078</v>
+        <v>1627800984.646228</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1705960840534619</v>
+        <v>0.1362402717914449</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03229363585888279</v>
+        <v>0.03494239267573126</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>828698375.6092464</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4667793530.528813</v>
+        <v>4397641929.768922</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2132172475387259</v>
+        <v>0.1533424241371857</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05358361496295119</v>
+        <v>0.05175824451375345</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>101</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2333896838.822693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4016197687.160204</v>
+        <v>4124141158.08506</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1508551127247054</v>
+        <v>0.1259328569106469</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04117669099354369</v>
+        <v>0.03139815227524615</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>99</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2008098857.381095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2161974952.143321</v>
+        <v>2892701914.811785</v>
       </c>
       <c r="F12" t="n">
-        <v>0.183529016396781</v>
+        <v>0.1589026160117389</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03457505337379279</v>
+        <v>0.04892237410764407</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>82</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1080987417.311913</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3703455906.936825</v>
+        <v>3839533248.524393</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08338869195856388</v>
+        <v>0.08022040590520907</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02033403933391855</v>
+        <v>0.02231849659513869</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>80</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1851728023.454497</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3197540088.85691</v>
+        <v>2559900974.261918</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1442940609769874</v>
+        <v>0.1149093265918359</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03564993418241736</v>
+        <v>0.03786262110669777</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1598770064.554989</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1111836386.379655</v>
+        <v>1756935260.775962</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08028711053369654</v>
+        <v>0.1053859220511255</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03188991478108904</v>
+        <v>0.0468209441124556</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>555918190.672755</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1980712102.201012</v>
+        <v>2884061717.869795</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1062179679591165</v>
+        <v>0.07718677827697501</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04272098276218324</v>
+        <v>0.03453152492257672</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>990356128.294557</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4249293311.188037</v>
+        <v>4721311113.095677</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1402777796472223</v>
+        <v>0.1226561100932945</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05095119809384457</v>
+        <v>0.0508196757925882</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>70</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2124646677.85165</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3512937877.753877</v>
+        <v>3775471089.850233</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1535758750594225</v>
+        <v>0.1280478548444597</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02608541078701883</v>
+        <v>0.02589091431799232</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>78</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1756468931.951516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1100106559.734072</v>
+        <v>886966226.5734974</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1327530345391488</v>
+        <v>0.1459609720155996</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0190394577841592</v>
+        <v>0.01897826087418064</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>550053333.4896667</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2379644060.089276</v>
+        <v>2524949333.797984</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1442903014285932</v>
+        <v>0.09829954777949056</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02713213627215922</v>
+        <v>0.03117316748674617</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1189822015.925618</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2135872766.967641</v>
+        <v>2055228809.920238</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06563857912228153</v>
+        <v>0.07107761402579518</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04620683406137979</v>
+        <v>0.0345229353028917</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1067936406.45034</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3572810296.558348</v>
+        <v>2657287382.050437</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1196049734075227</v>
+        <v>0.1109024021945278</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04595689557588348</v>
+        <v>0.03747695349138206</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1786405175.499319</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1005858071.179989</v>
+        <v>1212629472.383421</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1319659135191513</v>
+        <v>0.1661200993378933</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05287630826392332</v>
+        <v>0.04814442636015002</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>502929104.7718375</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2921058697.919407</v>
+        <v>2952831561.389449</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1400683990384327</v>
+        <v>0.1129514167432954</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02452471397461256</v>
+        <v>0.02708286757741285</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>70</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1460529389.504292</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>892798445.3021839</v>
+        <v>1098876680.531229</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08477958582436095</v>
+        <v>0.1063677503017033</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02015740518378479</v>
+        <v>0.02978904575489589</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>446399311.2802185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1047294422.998145</v>
+        <v>1151253198.761514</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09567771772996421</v>
+        <v>0.1045325522862943</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03436060533870704</v>
+        <v>0.03482790128285957</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>523647195.1147518</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4270714412.919058</v>
+        <v>4526684911.036239</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09548753465178055</v>
+        <v>0.1562389475156276</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02535106144085347</v>
+        <v>0.01960758109839339</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2135357203.132408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3274246178.069725</v>
+        <v>3417652732.57802</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1087292174038137</v>
+        <v>0.1307556452297338</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04636718259439563</v>
+        <v>0.03925423490753409</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>77</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1637123124.040656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4472361942.905808</v>
+        <v>4561695117.73397</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1088406208177482</v>
+        <v>0.112820194037449</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03795883426865951</v>
+        <v>0.03288756247247753</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>106</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2236180955.607095</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2405463742.000397</v>
+        <v>1935919675.161821</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1278613210340005</v>
+        <v>0.1088411177791365</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03988644655457665</v>
+        <v>0.0330939870028454</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1202731954.600405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>987727491.6302135</v>
+        <v>1216706409.556952</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09194467866005214</v>
+        <v>0.08059273903779084</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04930740321259159</v>
+        <v>0.0441977626919595</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>493863747.242604</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1555744250.577968</v>
+        <v>1540749394.394233</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1008175452474511</v>
+        <v>0.1138216685970701</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03676166241547112</v>
+        <v>0.03056571580951551</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>777872205.1835004</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3011016451.448861</v>
+        <v>2994831997.414834</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1382310185600456</v>
+        <v>0.1318796139048894</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03906213363784284</v>
+        <v>0.05979175317817677</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>71</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1505508220.42313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1356562709.119523</v>
+        <v>1168106257.360819</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1196542337668429</v>
+        <v>0.09569954834224725</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02055518821082059</v>
+        <v>0.02137555544612138</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>678281333.8985769</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1297759690.00153</v>
+        <v>1233345910.364264</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07300787039235071</v>
+        <v>0.1094268679230081</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03531196628930523</v>
+        <v>0.03867075919597104</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>648879798.2677234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2234390072.558137</v>
+        <v>2077987168.465352</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1257789182989779</v>
+        <v>0.1655157801941957</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02301562668380881</v>
+        <v>0.01792210602215046</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>59</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1117195079.503557</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2532225825.175882</v>
+        <v>2306642528.039354</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1018231722500828</v>
+        <v>0.07738342926895687</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02942733255443442</v>
+        <v>0.02960252684980054</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>62</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1266113013.104832</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1946056981.519338</v>
+        <v>2057892856.026161</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08532361870293999</v>
+        <v>0.1098053380135548</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02629214338280966</v>
+        <v>0.02556925835300913</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>973028476.9948535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1566001601.484677</v>
+        <v>1650260658.377092</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1508136418156394</v>
+        <v>0.1570473834290346</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01992501816881604</v>
+        <v>0.02431577787643482</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>783000861.1550879</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1149790475.488997</v>
+        <v>1781858949.199908</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1561821857698361</v>
+        <v>0.09808672022002093</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0499934333153985</v>
+        <v>0.03738019763044573</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>574895291.5987588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2576098646.328367</v>
+        <v>2169180578.689459</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1314150332147383</v>
+        <v>0.1323021061780856</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04474569358177927</v>
+        <v>0.04582713855499456</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>57</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1288049340.982227</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4291346296.291261</v>
+        <v>2799194948.413474</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09055529551292649</v>
+        <v>0.09580203236070037</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04134094160988389</v>
+        <v>0.03884885305629159</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2145673197.48304</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2897415184.855107</v>
+        <v>2199723820.192696</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1541102741577247</v>
+        <v>0.131009946185951</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02377513718107688</v>
+        <v>0.02493693360974172</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>82</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1448707601.127968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2221274527.097015</v>
+        <v>1780466950.196609</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07021155440419968</v>
+        <v>0.07434082695707325</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02702008156534997</v>
+        <v>0.03088354475380132</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1110637414.032514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1743176209.94886</v>
+        <v>1645827460.114843</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1488041043646671</v>
+        <v>0.1559756658468031</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05257001828997472</v>
+        <v>0.04369958275945468</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>871588069.9267629</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5587945309.938147</v>
+        <v>5428221281.729012</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1494798281682044</v>
+        <v>0.1700035376521391</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0536594158086238</v>
+        <v>0.04433584491582454</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>85</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2793972715.398563</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4206110073.468939</v>
+        <v>5119797999.499097</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1960509969089646</v>
+        <v>0.1427930917642976</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05020619287940062</v>
+        <v>0.04238902784536416</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>64</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2103055047.572676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4389063807.086082</v>
+        <v>3633511444.823947</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09501203439183788</v>
+        <v>0.07057212970457775</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02884624217609113</v>
+        <v>0.03748374132990438</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2194531915.270394</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1483980471.848492</v>
+        <v>1509562168.928493</v>
       </c>
       <c r="F49" t="n">
-        <v>0.141772669466367</v>
+        <v>0.1302048864014445</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02931249973406187</v>
+        <v>0.0287719574120594</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>741990270.4379941</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3633728414.951149</v>
+        <v>4166830129.008019</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1133268692132623</v>
+        <v>0.1651573515484611</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04353962759975256</v>
+        <v>0.03420548367411449</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>81</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1816864222.227478</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1189948975.031848</v>
+        <v>1209262540.113017</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1470200888679512</v>
+        <v>0.1839237340150293</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04792108172865966</v>
+        <v>0.04602047413743393</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>594974540.6931486</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4954275399.910828</v>
+        <v>5070157211.042558</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1334516912220116</v>
+        <v>0.1158357358148355</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05692357528513091</v>
+        <v>0.04684632274478464</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>98</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2477137700.254354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2295706696.887156</v>
+        <v>3508163343.854096</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1815076402392663</v>
+        <v>0.1988801709759145</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02834936687439742</v>
+        <v>0.02293166163355583</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>68</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1147853429.526728</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4165821979.33879</v>
+        <v>4776433033.3661</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1065492895604384</v>
+        <v>0.1552894505281194</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03199359458391651</v>
+        <v>0.03724925565563291</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>77</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2082911066.761481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3326447273.063393</v>
+        <v>3338510800.259821</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2239877116431616</v>
+        <v>0.2036108774638019</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03056826969600969</v>
+        <v>0.02024709243772797</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>65</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1663223581.683382</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1734275818.017724</v>
+        <v>1779253349.053872</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1434377057774782</v>
+        <v>0.1391264893557831</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0557785462542554</v>
+        <v>0.0403188057203519</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>867137916.5550661</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3850880658.835406</v>
+        <v>3905621151.224207</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1189806527529838</v>
+        <v>0.1693898748469406</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02056171435746438</v>
+        <v>0.02476032651168605</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>76</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1925440405.247703</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1641388529.16516</v>
+        <v>1301282640.532111</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1567482573541709</v>
+        <v>0.1484183104992665</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03888050787116239</v>
+        <v>0.0315741398219952</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>820694282.8010299</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4445413898.931376</v>
+        <v>5175733404.322453</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08501362964427218</v>
+        <v>0.1055036630126524</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04736765309484715</v>
+        <v>0.03884675977115744</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>65</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2222706903.902874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3699902426.420834</v>
+        <v>2477552000.543818</v>
       </c>
       <c r="F60" t="n">
-        <v>0.182276889084833</v>
+        <v>0.1938797860860492</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03160543756524625</v>
+        <v>0.03044483084510117</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>76</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1849951356.963301</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2964880542.107755</v>
+        <v>2750179094.991108</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1291978284786101</v>
+        <v>0.1720059623749564</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01998778635915446</v>
+        <v>0.02689860275535189</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>81</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1482440254.826296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2106120249.392794</v>
+        <v>1480767950.304614</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1875831514195763</v>
+        <v>0.1263734073319477</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04236563118118905</v>
+        <v>0.03678787102737156</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1053060198.691528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4648422464.944835</v>
+        <v>3377214933.890526</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09117604662684037</v>
+        <v>0.09914224500722499</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03817970792459585</v>
+        <v>0.04558868545316107</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>68</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2324211265.929606</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4477488795.143038</v>
+        <v>4290912248.24204</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1602692093032873</v>
+        <v>0.1365830104099492</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02326317802410068</v>
+        <v>0.02668671057749949</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>74</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2238744467.008727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3638192919.312826</v>
+        <v>3692607400.809669</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1484473440539538</v>
+        <v>0.1488329777321545</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02654809471816923</v>
+        <v>0.02650262480218582</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>86</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1819096499.819732</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5405351920.615123</v>
+        <v>4483024833.979366</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1098379009444015</v>
+        <v>0.1408699977087724</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03295344884703316</v>
+        <v>0.04395684909566066</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>69</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2702676009.153402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2412720991.404615</v>
+        <v>2648480110.526858</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06587568317549605</v>
+        <v>0.1002182973288028</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04124349357233981</v>
+        <v>0.04085256750985217</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>78</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1206360563.642133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5599863794.853787</v>
+        <v>5918840667.978226</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1151903775669123</v>
+        <v>0.1522218741791793</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03564001259736201</v>
+        <v>0.05151951786796766</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2799931990.157022</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1915507049.221149</v>
+        <v>2038642561.064155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.132502807612421</v>
+        <v>0.1143336415370459</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04105483397601205</v>
+        <v>0.0388890877419216</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>957753518.6163074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3153208414.940961</v>
+        <v>2669621834.966687</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08122852771473567</v>
+        <v>0.0664626056557919</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03889568617108445</v>
+        <v>0.041019123891518</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>67</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1576604194.489997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4617001213.383419</v>
+        <v>4537917210.8708</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1824324560568837</v>
+        <v>0.1659705887360855</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02589834469039239</v>
+        <v>0.02696461619419921</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>87</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2308500683.770467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2004951910.099919</v>
+        <v>2234740065.515551</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09923661334701088</v>
+        <v>0.1025872031754572</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04022543214374331</v>
+        <v>0.04678634650772837</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1002475900.596289</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2678545333.830459</v>
+        <v>3319359858.704535</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0812937967971961</v>
+        <v>0.07465730830746715</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03220777165888844</v>
+        <v>0.03506852917130981</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>91</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1339272692.306213</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3752798416.476791</v>
+        <v>2564678639.193884</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1352792457565848</v>
+        <v>0.1668753707473737</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03029919522148788</v>
+        <v>0.03078872258857122</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>81</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1876399208.558302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1652672146.810496</v>
+        <v>1914608545.04181</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1409252455054566</v>
+        <v>0.112492886928975</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02956278366834414</v>
+        <v>0.02933529389717992</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>826336070.1411927</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3754683517.918999</v>
+        <v>3904887273.186193</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08944513616220365</v>
+        <v>0.1184906331463391</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02655644819273112</v>
+        <v>0.03034716902222606</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>54</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1877341733.3804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2191468184.827034</v>
+        <v>1935310214.208883</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1456627783117896</v>
+        <v>0.1612249626696953</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02913036856682382</v>
+        <v>0.02910406010761609</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1095734182.195866</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3014689807.006194</v>
+        <v>4769633550.787367</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0897392977622465</v>
+        <v>0.09596910667274092</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0462108697241216</v>
+        <v>0.05350992168268622</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>83</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1507344939.709015</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1379559695.553868</v>
+        <v>1204590016.784275</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1170229483574084</v>
+        <v>0.1400393281061897</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03016424797883554</v>
+        <v>0.0301039198017816</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>689779860.9203222</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4431837922.961966</v>
+        <v>4959127886.915685</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1010854239634797</v>
+        <v>0.09321426012477117</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03472503534028913</v>
+        <v>0.03495363449739207</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>50</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2215918982.430635</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4459024298.790485</v>
+        <v>4492743356.502333</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08936532704936843</v>
+        <v>0.09415362761801627</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02780905563229913</v>
+        <v>0.02235424318222454</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2229512129.652035</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5679686965.609909</v>
+        <v>4632456767.43009</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1488262467047105</v>
+        <v>0.1915722560019369</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0256749145202542</v>
+        <v>0.02839944326811953</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2839843428.825203</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1594215169.186795</v>
+        <v>2218337995.237598</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1181621892593027</v>
+        <v>0.1070929453964456</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04226112047505957</v>
+        <v>0.04454588006745305</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>797107519.4196476</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2228292433.988487</v>
+        <v>2016653510.02922</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07489311497116823</v>
+        <v>0.09399863790552135</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04536815108613674</v>
+        <v>0.03370809062009697</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1114146188.536782</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2568795284.911755</v>
+        <v>3184594407.579628</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1256666902942937</v>
+        <v>0.1512879615721647</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03929121574385373</v>
+        <v>0.05211128265861202</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>90</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1284397654.978077</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2729653632.211219</v>
+        <v>2495070501.75264</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1100244265782131</v>
+        <v>0.1507209927552945</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01741130918429838</v>
+        <v>0.01787753842882723</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>30</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1364826945.169636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1171433224.202064</v>
+        <v>919900923.425625</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1884935487044754</v>
+        <v>0.1172044169297819</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02894992483093415</v>
+        <v>0.04051223136757502</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>585716660.3554939</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3100767651.994721</v>
+        <v>3588050914.264544</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1513585406300373</v>
+        <v>0.1477558546228437</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03507914261759504</v>
+        <v>0.02425335981193918</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>94</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1550383866.40099</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2697141405.336686</v>
+        <v>3363245934.703812</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1161977747099494</v>
+        <v>0.1012032203633892</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03670626149844841</v>
+        <v>0.02741782584055043</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>82</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1348570762.958585</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2100215173.226155</v>
+        <v>1332995753.094814</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1055490754461124</v>
+        <v>0.09467838395750365</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04620125208942766</v>
+        <v>0.0470353386242298</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1050107675.223938</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1893542245.37903</v>
+        <v>1482162239.269038</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1634093256756763</v>
+        <v>0.1613694226050916</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04537266954672632</v>
+        <v>0.06108676803860275</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>946771109.1506453</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1997917960.402217</v>
+        <v>1897661065.612685</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07030195866775746</v>
+        <v>0.09895776884258485</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03617342759890192</v>
+        <v>0.04697825115908733</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>60</v>
-      </c>
-      <c r="J92" t="n">
-        <v>998958926.1935649</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3572261373.456761</v>
+        <v>3518021314.089849</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1337460692905291</v>
+        <v>0.1158457811782266</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03819434570593191</v>
+        <v>0.05473830496978137</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1786130714.973418</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2367361982.481292</v>
+        <v>2435825238.299335</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1534044133768289</v>
+        <v>0.1671924958769089</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04190067193804582</v>
+        <v>0.03505399535008208</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1183681037.454463</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2645229315.340089</v>
+        <v>3225493102.451289</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1058683966002641</v>
+        <v>0.127934810609535</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03764094234856453</v>
+        <v>0.03592580679983409</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>58</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1322614683.194225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1760607188.655038</v>
+        <v>2046268785.533085</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1142193667591321</v>
+        <v>0.08770966248831422</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04596569262400849</v>
+        <v>0.04607764293423409</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>880303606.8474482</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3749891204.247474</v>
+        <v>3886931481.810854</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1253638966921493</v>
+        <v>0.1232057269427483</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02735281526615471</v>
+        <v>0.02212809554611265</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>76</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1874945638.382533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2667179363.364224</v>
+        <v>3010540208.527046</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09809727429173273</v>
+        <v>0.07951067933438372</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02117619239326904</v>
+        <v>0.02667631966688002</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>63</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1333589643.795073</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2080188938.59645</v>
+        <v>2243500751.273322</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1119765394660259</v>
+        <v>0.1248918741464044</v>
       </c>
       <c r="G99" t="n">
-        <v>0.026421293651748</v>
+        <v>0.02198440229970823</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>77</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1040094388.602408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4525018187.032024</v>
+        <v>4433533566.760708</v>
       </c>
       <c r="F100" t="n">
-        <v>0.119828021804342</v>
+        <v>0.1390408701915694</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0249885259091437</v>
+        <v>0.02679354745329959</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>74</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2262509206.101798</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3050393426.448328</v>
+        <v>3295450041.561104</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1671330385707359</v>
+        <v>0.1713401109774716</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03982557495037298</v>
+        <v>0.05758131615450872</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>96</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1525196808.972371</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_238.xlsx
+++ b/output/fit_clients/fit_round_238.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2257401763.546857</v>
+        <v>1663848001.46524</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1132749636752012</v>
+        <v>0.09772432116939707</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02756364081335497</v>
+        <v>0.0443520803432888</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1885003049.233665</v>
+        <v>2341898377.20313</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1709497982265741</v>
+        <v>0.1230234483847509</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04303369577637071</v>
+        <v>0.03861032274892018</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5174478139.58289</v>
+        <v>3569211866.638872</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1139062515928467</v>
+        <v>0.1574815836454612</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03310809021391245</v>
+        <v>0.02959907849279279</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2921657765.908457</v>
+        <v>3132579385.877649</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0827025622106493</v>
+        <v>0.1097635964549904</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04322320483046271</v>
+        <v>0.04965471129750818</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2547821312.09305</v>
+        <v>1857195503.994117</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1031872324909035</v>
+        <v>0.1048478921312905</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03523583623630732</v>
+        <v>0.04163630315690741</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2824214006.842903</v>
+        <v>2509621707.388206</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08905758555976476</v>
+        <v>0.09216226663590585</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04682017193833423</v>
+        <v>0.03243443602404737</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3565571932.878582</v>
+        <v>3824104214.585626</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1984397706832429</v>
+        <v>0.1637391812984873</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0284574594304427</v>
+        <v>0.02177155386681972</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1627800984.646228</v>
+        <v>2165605319.168242</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1362402717914449</v>
+        <v>0.1579727180327437</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03494239267573126</v>
+        <v>0.03320546259897241</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4397641929.768922</v>
+        <v>5618125101.54781</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1533424241371857</v>
+        <v>0.1779903203564048</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05175824451375345</v>
+        <v>0.04900701098410636</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4124141158.08506</v>
+        <v>3173766175.317108</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1259328569106469</v>
+        <v>0.1180037358027991</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03139815227524615</v>
+        <v>0.04852241535318377</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2892701914.811785</v>
+        <v>2699520011.41844</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1589026160117389</v>
+        <v>0.1786960662198855</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04892237410764407</v>
+        <v>0.03766786669667659</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3839533248.524393</v>
+        <v>5156563787.193176</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08022040590520907</v>
+        <v>0.09204985345109076</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02231849659513869</v>
+        <v>0.03039617309771915</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2559900974.261918</v>
+        <v>2583148369.095677</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1149093265918359</v>
+        <v>0.1749434571156593</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03786262110669777</v>
+        <v>0.03949508262731143</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1756935260.775962</v>
+        <v>1467555452.960329</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1053859220511255</v>
+        <v>0.1069818641895393</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0468209441124556</v>
+        <v>0.03337028903678391</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2884061717.869795</v>
+        <v>2692072736.838791</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07718677827697501</v>
+        <v>0.07095451918722312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03453152492257672</v>
+        <v>0.03850007998740735</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4721311113.095677</v>
+        <v>4358717760.462254</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1226561100932945</v>
+        <v>0.1450699557176819</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0508196757925882</v>
+        <v>0.03280238673334569</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3775471089.850233</v>
+        <v>3768245135.63108</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1280478548444597</v>
+        <v>0.1458186392709541</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02589091431799232</v>
+        <v>0.02757556584443505</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>886966226.5734974</v>
+        <v>1100546623.207659</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1459609720155996</v>
+        <v>0.1213361616602512</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01897826087418064</v>
+        <v>0.01989086274353066</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2524949333.797984</v>
+        <v>1918899023.149377</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09829954777949056</v>
+        <v>0.1061226974908926</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03117316748674617</v>
+        <v>0.02672612695938251</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2055228809.920238</v>
+        <v>1716094575.131876</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07107761402579518</v>
+        <v>0.07460803239940184</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0345229353028917</v>
+        <v>0.03957592224861676</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2657287382.050437</v>
+        <v>2708757875.318092</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1109024021945278</v>
+        <v>0.09658628066133239</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03747695349138206</v>
+        <v>0.04306134278891954</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1212629472.383421</v>
+        <v>1364719059.008364</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1661200993378933</v>
+        <v>0.1860334629580832</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04814442636015002</v>
+        <v>0.03562745752519125</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2952831561.389449</v>
+        <v>4020341634.187947</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1129514167432954</v>
+        <v>0.1242343590243757</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02708286757741285</v>
+        <v>0.0231052435665201</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1098876680.531229</v>
+        <v>1459505077.604552</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1063677503017033</v>
+        <v>0.105948544916264</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02978904575489589</v>
+        <v>0.02723027724800853</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1151253198.761514</v>
+        <v>1057559191.02483</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1045325522862943</v>
+        <v>0.1018028617918558</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03482790128285957</v>
+        <v>0.02558829066587546</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4526684911.036239</v>
+        <v>3224152569.135019</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1562389475156276</v>
+        <v>0.1241275931468778</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01960758109839339</v>
+        <v>0.01802041788857034</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3417652732.57802</v>
+        <v>2864965222.870263</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1307556452297338</v>
+        <v>0.09363156632458774</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03925423490753409</v>
+        <v>0.03187957122407979</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4561695117.73397</v>
+        <v>4043197040.199908</v>
       </c>
       <c r="F29" t="n">
-        <v>0.112820194037449</v>
+        <v>0.1273471293042455</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03288756247247753</v>
+        <v>0.0413676215511201</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1935919675.161821</v>
+        <v>1751134413.113781</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1088411177791365</v>
+        <v>0.139770802878187</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0330939870028454</v>
+        <v>0.02885351821135951</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1216706409.556952</v>
+        <v>1139976664.555652</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08059273903779084</v>
+        <v>0.0704813685055531</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0441977626919595</v>
+        <v>0.04544307893633729</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1540749394.394233</v>
+        <v>1765778828.446084</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1138216685970701</v>
+        <v>0.1112192698845995</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03056571580951551</v>
+        <v>0.02959485991869197</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2994831997.414834</v>
+        <v>2134746751.246449</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1318796139048894</v>
+        <v>0.1478839626751411</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05979175317817677</v>
+        <v>0.04634188943708627</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1168106257.360819</v>
+        <v>1466404543.626487</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09569954834224725</v>
+        <v>0.09955845160066415</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02137555544612138</v>
+        <v>0.02245848510340505</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1233345910.364264</v>
+        <v>827139310.6632851</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1094268679230081</v>
+        <v>0.1147867712289302</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03867075919597104</v>
+        <v>0.03189482702093493</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2077987168.465352</v>
+        <v>2390403620.647873</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1655157801941957</v>
+        <v>0.1308098285991815</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01792210602215046</v>
+        <v>0.02411779473758436</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2306642528.039354</v>
+        <v>2727483750.390548</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07738342926895687</v>
+        <v>0.08389429274382544</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02960252684980054</v>
+        <v>0.0391063385495135</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2057892856.026161</v>
+        <v>1626077494.895964</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1098053380135548</v>
+        <v>0.1086986325328975</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02556925835300913</v>
+        <v>0.03865724817429199</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1650260658.377092</v>
+        <v>1969807374.221767</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1570473834290346</v>
+        <v>0.164816454847975</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02431577787643482</v>
+        <v>0.02874488557907331</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1781858949.199908</v>
+        <v>1371761129.306354</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09808672022002093</v>
+        <v>0.1204239411925049</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03738019763044573</v>
+        <v>0.05720815446654729</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2169180578.689459</v>
+        <v>2680263593.249734</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1323021061780856</v>
+        <v>0.1199486440273196</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04582713855499456</v>
+        <v>0.03525089962909621</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2799194948.413474</v>
+        <v>3226674917.985807</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09580203236070037</v>
+        <v>0.1228250839240187</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03884885305629159</v>
+        <v>0.04471488504352918</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2199723820.192696</v>
+        <v>2280088721.231041</v>
       </c>
       <c r="F43" t="n">
-        <v>0.131009946185951</v>
+        <v>0.1472310965341582</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02493693360974172</v>
+        <v>0.01901222798913082</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1780466950.196609</v>
+        <v>1730764324.187033</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07434082695707325</v>
+        <v>0.1031512501577854</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03088354475380132</v>
+        <v>0.03592753693970375</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1645827460.114843</v>
+        <v>1763570590.853027</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1559756658468031</v>
+        <v>0.1234110984598155</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04369958275945468</v>
+        <v>0.03453019094338412</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5428221281.729012</v>
+        <v>4110758165.103525</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1700035376521391</v>
+        <v>0.1619446147136153</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04433584491582454</v>
+        <v>0.03774260049734476</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5119797999.499097</v>
+        <v>4447418943.22834</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1427930917642976</v>
+        <v>0.1762336820739986</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04238902784536416</v>
+        <v>0.04988965840985281</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3633511444.823947</v>
+        <v>4615424252.606414</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07057212970457775</v>
+        <v>0.1061523491182035</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03748374132990438</v>
+        <v>0.02964458276398869</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1509562168.928493</v>
+        <v>1600828164.460551</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1302048864014445</v>
+        <v>0.1354806340214711</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0287719574120594</v>
+        <v>0.02762030482264972</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4166830129.008019</v>
+        <v>2775421343.021358</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1651573515484611</v>
+        <v>0.1458444048758317</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03420548367411449</v>
+        <v>0.03518265150683579</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1209262540.113017</v>
+        <v>1279692655.96537</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1839237340150293</v>
+        <v>0.1627878631545026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04602047413743393</v>
+        <v>0.05122235167348849</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5070157211.042558</v>
+        <v>3946171805.195753</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1158357358148355</v>
+        <v>0.1225319830293518</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04684632274478464</v>
+        <v>0.04972377046624596</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3508163343.854096</v>
+        <v>3800719015.005922</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1988801709759145</v>
+        <v>0.1679620298890702</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02293166163355583</v>
+        <v>0.03543550624297679</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4776433033.3661</v>
+        <v>3288795622.621524</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1552894505281194</v>
+        <v>0.123462919480008</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03724925565563291</v>
+        <v>0.04500237927567877</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3338510800.259821</v>
+        <v>3023076404.260413</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2036108774638019</v>
+        <v>0.1912105712316402</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02024709243772797</v>
+        <v>0.03012464660957348</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1779253349.053872</v>
+        <v>1336215435.309108</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1391264893557831</v>
+        <v>0.1211611398212944</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0403188057203519</v>
+        <v>0.04864057757662563</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3905621151.224207</v>
+        <v>3553863561.166025</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1693898748469406</v>
+        <v>0.1822306659535164</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02476032651168605</v>
+        <v>0.01831967290921582</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1301282640.532111</v>
+        <v>1266739912.10526</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1484183104992665</v>
+        <v>0.1485402069481583</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0315741398219952</v>
+        <v>0.02819788198458495</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5175733404.322453</v>
+        <v>4725920561.390548</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1055036630126524</v>
+        <v>0.08552957989023845</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03884675977115744</v>
+        <v>0.03590835210918146</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2477552000.543818</v>
+        <v>2959498064.772956</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1938797860860492</v>
+        <v>0.1557073258770382</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03044483084510117</v>
+        <v>0.0244133769311302</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2750179094.991108</v>
+        <v>3383170707.040987</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1720059623749564</v>
+        <v>0.1655714903512115</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02689860275535189</v>
+        <v>0.0285647453711189</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1480767950.304614</v>
+        <v>1713866868.96809</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1263734073319477</v>
+        <v>0.1317525304631341</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03678787102737156</v>
+        <v>0.04790220436387026</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3377214933.890526</v>
+        <v>3873929448.988975</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09914224500722499</v>
+        <v>0.07324989801271016</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04558868545316107</v>
+        <v>0.04365330636556705</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4290912248.24204</v>
+        <v>4865038472.197627</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1365830104099492</v>
+        <v>0.1474623633197832</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02668671057749949</v>
+        <v>0.02993683313116182</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3692607400.809669</v>
+        <v>5576063875.334846</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1488329777321545</v>
+        <v>0.1742445576390956</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02650262480218582</v>
+        <v>0.02588093879860668</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4483024833.979366</v>
+        <v>5387357148.672462</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1408699977087724</v>
+        <v>0.1127982333562994</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04395684909566066</v>
+        <v>0.04553075236381244</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2648480110.526858</v>
+        <v>2496812225.546723</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1002182973288028</v>
+        <v>0.08474200401863476</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04085256750985217</v>
+        <v>0.03181478084299511</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5918840667.978226</v>
+        <v>5866672648.577761</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1522218741791793</v>
+        <v>0.1430487686216139</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05151951786796766</v>
+        <v>0.04576222496499027</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2038642561.064155</v>
+        <v>2442650120.683455</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1143336415370459</v>
+        <v>0.1258402255025478</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0388890877419216</v>
+        <v>0.05196093386497471</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2669621834.966687</v>
+        <v>3339175311.20269</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0664626056557919</v>
+        <v>0.09488483097920153</v>
       </c>
       <c r="G70" t="n">
-        <v>0.041019123891518</v>
+        <v>0.04641996771024884</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4537917210.8708</v>
+        <v>4913177769.673543</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1659705887360855</v>
+        <v>0.1484497367463005</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02696461619419921</v>
+        <v>0.02928228841469287</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2234740065.515551</v>
+        <v>1819480022.391971</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1025872031754572</v>
+        <v>0.06837412921784765</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04678634650772837</v>
+        <v>0.03611950386941593</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3319359858.704535</v>
+        <v>3360204372.423905</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07465730830746715</v>
+        <v>0.07769614112881232</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03506852917130981</v>
+        <v>0.03615524800588371</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2564678639.193884</v>
+        <v>3775205610.693318</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1668753707473737</v>
+        <v>0.1215473820540695</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03078872258857122</v>
+        <v>0.02818982241674882</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1914608545.04181</v>
+        <v>2057437623.375007</v>
       </c>
       <c r="F75" t="n">
-        <v>0.112492886928975</v>
+        <v>0.1627817500800726</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02933529389717992</v>
+        <v>0.03146687023585458</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3904887273.186193</v>
+        <v>5228766035.026438</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1184906331463391</v>
+        <v>0.07600385194202887</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03034716902222606</v>
+        <v>0.03108290720535206</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1935310214.208883</v>
+        <v>2134663210.730931</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1612249626696953</v>
+        <v>0.1629821206532984</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02910406010761609</v>
+        <v>0.0253396540260603</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4769633550.787367</v>
+        <v>3735189474.57447</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09596910667274092</v>
+        <v>0.1003085745696881</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05350992168268622</v>
+        <v>0.04322021744672958</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1204590016.784275</v>
+        <v>1892926576.541193</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1400393281061897</v>
+        <v>0.1443705879538177</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0301039198017816</v>
+        <v>0.03732037138437467</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4959127886.915685</v>
+        <v>4469887124.312502</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09321426012477117</v>
+        <v>0.0730517179087731</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03495363449739207</v>
+        <v>0.02386741047431187</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4492743356.502333</v>
+        <v>4390924373.123604</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09415362761801627</v>
+        <v>0.1059242241877827</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02235424318222454</v>
+        <v>0.0215801570295771</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4632456767.43009</v>
+        <v>4347265199.395219</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1915722560019369</v>
+        <v>0.1754011571866791</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02839944326811953</v>
+        <v>0.02615497994072918</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2218337995.237598</v>
+        <v>1539090173.815942</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1070929453964456</v>
+        <v>0.1231544811876495</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04454588006745305</v>
+        <v>0.04420789561976046</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2016653510.02922</v>
+        <v>2386310297.088471</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09399863790552135</v>
+        <v>0.1085764959883593</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03370809062009697</v>
+        <v>0.03404412734874124</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3184594407.579628</v>
+        <v>3206884431.292854</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1512879615721647</v>
+        <v>0.1520240832450463</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05211128265861202</v>
+        <v>0.04681629466938533</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2495070501.75264</v>
+        <v>2318293643.132301</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1507209927552945</v>
+        <v>0.1679898519177476</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01787753842882723</v>
+        <v>0.02309842213768833</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>919900923.425625</v>
+        <v>1392453548.88707</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1172044169297819</v>
+        <v>0.171347598422243</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04051223136757502</v>
+        <v>0.0391015836627032</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3588050914.264544</v>
+        <v>3292281672.684705</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1477558546228437</v>
+        <v>0.1771894234475124</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02425335981193918</v>
+        <v>0.03913372870086059</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3363245934.703812</v>
+        <v>2843375385.380242</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1012032203633892</v>
+        <v>0.1147705406765407</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02741782584055043</v>
+        <v>0.0365060402680997</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1332995753.094814</v>
+        <v>1884691907.480058</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09467838395750365</v>
+        <v>0.1021661586687742</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0470353386242298</v>
+        <v>0.04552301304834536</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1482162239.269038</v>
+        <v>1861070693.497042</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1613694226050916</v>
+        <v>0.1892475437464166</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06108676803860275</v>
+        <v>0.04009443100519715</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1897661065.612685</v>
+        <v>2279411852.605411</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09895776884258485</v>
+        <v>0.06679636677149749</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04697825115908733</v>
+        <v>0.03577787591571475</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3518021314.089849</v>
+        <v>4599584991.305407</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1158457811782266</v>
+        <v>0.1289790098541553</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05473830496978137</v>
+        <v>0.03513881568199936</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2435825238.299335</v>
+        <v>1732823786.825931</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1671924958769089</v>
+        <v>0.1055683528906133</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03505399535008208</v>
+        <v>0.04092344528042713</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3225493102.451289</v>
+        <v>3046311740.649722</v>
       </c>
       <c r="F95" t="n">
-        <v>0.127934810609535</v>
+        <v>0.1043029843894454</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03592580679983409</v>
+        <v>0.0413932571328836</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2046268785.533085</v>
+        <v>2115863585.960987</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08770966248831422</v>
+        <v>0.1031074528325169</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04607764293423409</v>
+        <v>0.04383700778087225</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3886931481.810854</v>
+        <v>4788389898.320827</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1232057269427483</v>
+        <v>0.1647305112123418</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02212809554611265</v>
+        <v>0.01993790067948643</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3010540208.527046</v>
+        <v>3760163793.729088</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07951067933438372</v>
+        <v>0.1186484083075016</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02667631966688002</v>
+        <v>0.02207446099329292</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2243500751.273322</v>
+        <v>2852836119.47002</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1248918741464044</v>
+        <v>0.1361074642451187</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02198440229970823</v>
+        <v>0.02183128067412384</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4433533566.760708</v>
+        <v>3458498231.309314</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1390408701915694</v>
+        <v>0.1129535953561565</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02679354745329959</v>
+        <v>0.02031430803463382</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3295450041.561104</v>
+        <v>2939972871.034768</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1713401109774716</v>
+        <v>0.1917512174534359</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05758131615450872</v>
+        <v>0.0582480805052829</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_238.xlsx
+++ b/output/fit_clients/fit_round_238.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1663848001.46524</v>
+        <v>2490861434.270833</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09772432116939707</v>
+        <v>0.08490504660814474</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0443520803432888</v>
+        <v>0.02768308555164329</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2341898377.20313</v>
+        <v>2628232244.485555</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1230234483847509</v>
+        <v>0.1796576897378283</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03861032274892018</v>
+        <v>0.03272451358794347</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3569211866.638872</v>
+        <v>4341515172.275892</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1574815836454612</v>
+        <v>0.1423500589016614</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02959907849279279</v>
+        <v>0.03357162876168803</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>129</v>
+      </c>
+      <c r="J4" t="n">
+        <v>237</v>
+      </c>
+      <c r="K4" t="n">
+        <v>102.8842933686982</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3132579385.877649</v>
+        <v>4105971374.084698</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1097635964549904</v>
+        <v>0.1030618027240409</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04965471129750818</v>
+        <v>0.04431404194629918</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>97</v>
+      </c>
+      <c r="J5" t="n">
+        <v>238</v>
+      </c>
+      <c r="K5" t="n">
+        <v>123.0942321531431</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1857195503.994117</v>
+        <v>2537141485.908234</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1048478921312905</v>
+        <v>0.1069521128255431</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04163630315690741</v>
+        <v>0.04644807110646843</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2509621707.388206</v>
+        <v>2745841172.592007</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09216226663590585</v>
+        <v>0.07593680718965495</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03243443602404737</v>
+        <v>0.04079982277937787</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3824104214.585626</v>
+        <v>2947673626.284808</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1637391812984873</v>
+        <v>0.1517368178240736</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02177155386681972</v>
+        <v>0.02592808077780853</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>234</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2165605319.168242</v>
+        <v>2016537289.254419</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1579727180327437</v>
+        <v>0.1224135936295144</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03320546259897241</v>
+        <v>0.03537581753640062</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5618125101.54781</v>
+        <v>5426995200.454151</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1779903203564048</v>
+        <v>0.2032301379815667</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04900701098410636</v>
+        <v>0.04713875177199539</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>217</v>
+      </c>
+      <c r="J10" t="n">
+        <v>238</v>
+      </c>
+      <c r="K10" t="n">
+        <v>112.480250938622</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3173766175.317108</v>
+        <v>2915852404.92337</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1180037358027991</v>
+        <v>0.1839427994338242</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04852241535318377</v>
+        <v>0.04832049436580506</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>99</v>
+      </c>
+      <c r="J11" t="n">
+        <v>236</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2699520011.41844</v>
+        <v>3194435692.925219</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1786960662198855</v>
+        <v>0.1770426973842008</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03766786669667659</v>
+        <v>0.05087433715160366</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5156563787.193176</v>
+        <v>5006454553.810433</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09204985345109076</v>
+        <v>0.07354776559652521</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03039617309771915</v>
+        <v>0.0208206450188416</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>120</v>
+      </c>
+      <c r="J13" t="n">
+        <v>237</v>
+      </c>
+      <c r="K13" t="n">
+        <v>106.1069765061949</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2583148369.095677</v>
+        <v>3665841265.229942</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1749434571156593</v>
+        <v>0.1780765104848452</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03949508262731143</v>
+        <v>0.04198781240641035</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>46</v>
+      </c>
+      <c r="J14" t="n">
+        <v>237</v>
+      </c>
+      <c r="K14" t="n">
+        <v>90.03855183504299</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1467555452.960329</v>
+        <v>1279024445.979133</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1069818641895393</v>
+        <v>0.08059264880663636</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03337028903678391</v>
+        <v>0.04907412344523459</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2692072736.838791</v>
+        <v>2510344909.861634</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07095451918722312</v>
+        <v>0.09772177253442478</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03850007998740735</v>
+        <v>0.05152700265398659</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4358717760.462254</v>
+        <v>3317928642.588408</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1450699557176819</v>
+        <v>0.110786205824365</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03280238673334569</v>
+        <v>0.04692484458282434</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>115</v>
+      </c>
+      <c r="J17" t="n">
+        <v>237</v>
+      </c>
+      <c r="K17" t="n">
+        <v>64.52733195831836</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3768245135.63108</v>
+        <v>2532768617.742121</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1458186392709541</v>
+        <v>0.1776552177226123</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02757556584443505</v>
+        <v>0.03252580116721505</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>59</v>
+      </c>
+      <c r="J18" t="n">
+        <v>233</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1100546623.207659</v>
+        <v>1109144354.018649</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1213361616602512</v>
+        <v>0.1422971942081757</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01989086274353066</v>
+        <v>0.02006566273857188</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1918899023.149377</v>
+        <v>1847181894.415801</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1061226974908926</v>
+        <v>0.1262679762480467</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02672612695938251</v>
+        <v>0.02467578949267511</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1178,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1716094575.131876</v>
+        <v>2305995552.328874</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07460803239940184</v>
+        <v>0.08416273134359843</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03957592224861676</v>
+        <v>0.04064189564834956</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1207,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2708757875.318092</v>
+        <v>3077102021.865551</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09658628066133239</v>
+        <v>0.1209056150190509</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04306134278891954</v>
+        <v>0.04610577177610623</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>61</v>
+      </c>
+      <c r="J22" t="n">
+        <v>237</v>
+      </c>
+      <c r="K22" t="n">
+        <v>56.04910386398913</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1244,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1364719059.008364</v>
+        <v>1473999439.545067</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1860334629580832</v>
+        <v>0.1182989779030797</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03562745752519125</v>
+        <v>0.03495372028980574</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1279,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4020341634.187947</v>
+        <v>3487979423.15278</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1242343590243757</v>
+        <v>0.09358451511189615</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0231052435665201</v>
+        <v>0.02294313209677907</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>72</v>
+      </c>
+      <c r="J24" t="n">
+        <v>238</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1459505077.604552</v>
+        <v>1383689162.461247</v>
       </c>
       <c r="F25" t="n">
-        <v>0.105948544916264</v>
+        <v>0.1022285508839128</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02723027724800853</v>
+        <v>0.02072192474437043</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1057559191.02483</v>
+        <v>1187547474.004784</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1018028617918558</v>
+        <v>0.1080719602399242</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02558829066587546</v>
+        <v>0.03688465543115508</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1390,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3224152569.135019</v>
+        <v>4645964823.909028</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1241275931468778</v>
+        <v>0.1358084695617063</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01802041788857034</v>
+        <v>0.02226364754769038</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>96</v>
+      </c>
+      <c r="J27" t="n">
+        <v>238</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1419,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2864965222.870263</v>
+        <v>3680313229.765068</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09363156632458774</v>
+        <v>0.1503270472163354</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03187957122407979</v>
+        <v>0.04807644982431057</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>49</v>
+      </c>
+      <c r="J28" t="n">
+        <v>237</v>
+      </c>
+      <c r="K28" t="n">
+        <v>89.76481651960373</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4043197040.199908</v>
+        <v>5778993284.659605</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1273471293042455</v>
+        <v>0.115966713604967</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0413676215511201</v>
+        <v>0.0462252613888877</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>227</v>
+      </c>
+      <c r="J29" t="n">
+        <v>238</v>
+      </c>
+      <c r="K29" t="n">
+        <v>115.8055520445708</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1751134413.113781</v>
+        <v>2144065004.897278</v>
       </c>
       <c r="F30" t="n">
-        <v>0.139770802878187</v>
+        <v>0.1325418765381276</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02885351821135951</v>
+        <v>0.03806867132744773</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1139976664.555652</v>
+        <v>1486871009.093063</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0704813685055531</v>
+        <v>0.07928524141488147</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04544307893633729</v>
+        <v>0.03870150514694359</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1563,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1765778828.446084</v>
+        <v>1570762797.835892</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1112192698845995</v>
+        <v>0.08475230959740891</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02959485991869197</v>
+        <v>0.03210182825774791</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2134746751.246449</v>
+        <v>2173989110.09731</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1478839626751411</v>
+        <v>0.1902329994429355</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04634188943708627</v>
+        <v>0.04765531067101963</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1466404543.626487</v>
+        <v>1537289343.950834</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09955845160066415</v>
+        <v>0.0774258327677592</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02245848510340505</v>
+        <v>0.02370541411519933</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1674,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>827139310.6632851</v>
+        <v>1122452548.688504</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1147867712289302</v>
+        <v>0.1150588094887279</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03189482702093493</v>
+        <v>0.03586030924279473</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2390403620.647873</v>
+        <v>2159050370.915794</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1308098285991815</v>
+        <v>0.1563994009586021</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02411779473758436</v>
+        <v>0.01887386538166677</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2727483750.390548</v>
+        <v>2239090481.296632</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08389429274382544</v>
+        <v>0.08080611800797154</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0391063385495135</v>
+        <v>0.03208753694010954</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1773,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1626077494.895964</v>
+        <v>1852115572.310362</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1086986325328975</v>
+        <v>0.1137131547112274</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03865724817429199</v>
+        <v>0.03622164997295733</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1814,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1969807374.221767</v>
+        <v>2024174070.385358</v>
       </c>
       <c r="F39" t="n">
-        <v>0.164816454847975</v>
+        <v>0.1416568716110487</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02874488557907331</v>
+        <v>0.03284475628075932</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1371761129.306354</v>
+        <v>1331187107.245173</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1204239411925049</v>
+        <v>0.1431497023152959</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05720815446654729</v>
+        <v>0.05539896338037428</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1884,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2680263593.249734</v>
+        <v>1860441955.899795</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1199486440273196</v>
+        <v>0.149700235378236</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03525089962909621</v>
+        <v>0.03622142120682657</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1919,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3226674917.985807</v>
+        <v>2718405081.622877</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1228250839240187</v>
+        <v>0.07689090619704415</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04471488504352918</v>
+        <v>0.03585099174106082</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>98</v>
+      </c>
+      <c r="J42" t="n">
+        <v>237</v>
+      </c>
+      <c r="K42" t="n">
+        <v>50.08031439496136</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1950,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2280088721.231041</v>
+        <v>2421322898.219653</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1472310965341582</v>
+        <v>0.1738835230108718</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01901222798913082</v>
+        <v>0.01713690453212202</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1985,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1730764324.187033</v>
+        <v>1708404106.651059</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1031512501577854</v>
+        <v>0.100080939445292</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03592753693970375</v>
+        <v>0.02394264131318481</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2020,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1763570590.853027</v>
+        <v>1785232779.084512</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1234110984598155</v>
+        <v>0.1339640777204027</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03453019094338412</v>
+        <v>0.0517342541400324</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2055,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4110758165.103525</v>
+        <v>5627554206.73</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1619446147136153</v>
+        <v>0.1289551293463632</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03774260049734476</v>
+        <v>0.05294454984573089</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>136</v>
+      </c>
+      <c r="J46" t="n">
+        <v>238</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2096,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4447418943.22834</v>
+        <v>5175875405.191379</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1762336820739986</v>
+        <v>0.1573617894446297</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04988965840985281</v>
+        <v>0.05278375988935408</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>106</v>
+      </c>
+      <c r="J47" t="n">
+        <v>238</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2131,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4615424252.606414</v>
+        <v>4557327628.289949</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1061523491182035</v>
+        <v>0.07878371107048864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02964458276398869</v>
+        <v>0.03140542266515227</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>117</v>
+      </c>
+      <c r="J48" t="n">
+        <v>238</v>
+      </c>
+      <c r="K48" t="n">
+        <v>113.8201827766617</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1600828164.460551</v>
+        <v>1598941686.758906</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1354806340214711</v>
+        <v>0.1203816307072409</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02762030482264972</v>
+        <v>0.03933092892309208</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2203,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2775421343.021358</v>
+        <v>2906062315.869601</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1458444048758317</v>
+        <v>0.1625959723237723</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03518265150683579</v>
+        <v>0.05111650962787655</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>78</v>
+      </c>
+      <c r="J50" t="n">
+        <v>237</v>
+      </c>
+      <c r="K50" t="n">
+        <v>55.2799890999265</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2240,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1279692655.96537</v>
+        <v>1223663488.091807</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1627878631545026</v>
+        <v>0.1505774797107049</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05122235167348849</v>
+        <v>0.04355831791205986</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2269,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3946171805.195753</v>
+        <v>3533627284.675309</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1225319830293518</v>
+        <v>0.1157968484364197</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04972377046624596</v>
+        <v>0.0553677530458552</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>155</v>
+      </c>
+      <c r="J52" t="n">
+        <v>238</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3800719015.005922</v>
+        <v>2343359511.857426</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1679620298890702</v>
+        <v>0.1670075520976471</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03543550624297679</v>
+        <v>0.02731138542726311</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2339,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3288795622.621524</v>
+        <v>4210293847.623515</v>
       </c>
       <c r="F54" t="n">
-        <v>0.123462919480008</v>
+        <v>0.118434575488867</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04500237927567877</v>
+        <v>0.04904044016084836</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>126</v>
+      </c>
+      <c r="J54" t="n">
+        <v>238</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3023076404.260413</v>
+        <v>4596709959.971954</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1912105712316402</v>
+        <v>0.1496191898740864</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03012464660957348</v>
+        <v>0.02837673660186044</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>106</v>
+      </c>
+      <c r="J55" t="n">
+        <v>238</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1336215435.309108</v>
+        <v>1801332168.483967</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1211611398212944</v>
+        <v>0.123228087172123</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04864057757662563</v>
+        <v>0.05159234370928348</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3553863561.166025</v>
+        <v>4468044728.024506</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1822306659535164</v>
+        <v>0.1544884543493555</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01831967290921582</v>
+        <v>0.01870725579982286</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>93</v>
+      </c>
+      <c r="J57" t="n">
+        <v>238</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1266739912.10526</v>
+        <v>1333364622.838216</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1485402069481583</v>
+        <v>0.1704236710564847</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02819788198458495</v>
+        <v>0.02563036592110725</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4725920561.390548</v>
+        <v>4400111507.093974</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08552957989023845</v>
+        <v>0.111867192568308</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03590835210918146</v>
+        <v>0.0350771677242883</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>115</v>
+      </c>
+      <c r="J59" t="n">
+        <v>237</v>
+      </c>
+      <c r="K59" t="n">
+        <v>97.66446349477157</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2557,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2959498064.772956</v>
+        <v>2640979611.98751</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1557073258770382</v>
+        <v>0.1901454804866996</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0244133769311302</v>
+        <v>0.02028008208310028</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>33</v>
+      </c>
+      <c r="J60" t="n">
+        <v>231</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3383170707.040987</v>
+        <v>2325199858.845997</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1655714903512115</v>
+        <v>0.1671544168429125</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0285647453711189</v>
+        <v>0.02340779135512581</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1713866868.96809</v>
+        <v>1390937717.141085</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1317525304631341</v>
+        <v>0.1502420228106471</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04790220436387026</v>
+        <v>0.0322822567412421</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3873929448.988975</v>
+        <v>5270381928.071747</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07324989801271016</v>
+        <v>0.09296759967318366</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04365330636556705</v>
+        <v>0.03545019447386386</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>116</v>
+      </c>
+      <c r="J63" t="n">
+        <v>237</v>
+      </c>
+      <c r="K63" t="n">
+        <v>99.78762365155569</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4865038472.197627</v>
+        <v>4693054848.486416</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1474623633197832</v>
+        <v>0.1573554260629134</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02993683313116182</v>
+        <v>0.03026229439564879</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>117</v>
+      </c>
+      <c r="J64" t="n">
+        <v>238</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5576063875.334846</v>
+        <v>5045879466.559999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1742445576390956</v>
+        <v>0.1309772134754897</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02588093879860668</v>
+        <v>0.03213865417709152</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>190</v>
+      </c>
+      <c r="J65" t="n">
+        <v>238</v>
+      </c>
+      <c r="K65" t="n">
+        <v>108.0631060589204</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2771,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5387357148.672462</v>
+        <v>5600738369.264528</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1127982333562994</v>
+        <v>0.1589394463764227</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04553075236381244</v>
+        <v>0.04676389749112995</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>117</v>
+      </c>
+      <c r="J66" t="n">
+        <v>238</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2496812225.546723</v>
+        <v>2492819419.875338</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08474200401863476</v>
+        <v>0.08201518004728192</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03181478084299511</v>
+        <v>0.03530818275736481</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>235</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5866672648.577761</v>
+        <v>5209631057.953057</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1430487686216139</v>
+        <v>0.1261208996679547</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04576222496499027</v>
+        <v>0.0494506226947794</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>120</v>
+      </c>
+      <c r="J68" t="n">
+        <v>238</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2442650120.683455</v>
+        <v>2200698903.624763</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1258402255025478</v>
+        <v>0.1472757167545372</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05196093386497471</v>
+        <v>0.05740425239898236</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3339175311.20269</v>
+        <v>2701296882.460027</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09488483097920153</v>
+        <v>0.07119090290305044</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04641996771024884</v>
+        <v>0.03329013661372851</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>37</v>
+      </c>
+      <c r="J70" t="n">
+        <v>234</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4913177769.673543</v>
+        <v>3837702505.913392</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1484497367463005</v>
+        <v>0.1641590550241674</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02928228841469287</v>
+        <v>0.03287317438702</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>180</v>
+      </c>
+      <c r="J71" t="n">
+        <v>237</v>
+      </c>
+      <c r="K71" t="n">
+        <v>94.90629726847374</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1819480022.391971</v>
+        <v>1890585198.865047</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06837412921784765</v>
+        <v>0.09565511335728921</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03611950386941593</v>
+        <v>0.04875606690768011</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3360204372.423905</v>
+        <v>3217219762.079646</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07769614112881232</v>
+        <v>0.07757064359732245</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03615524800588371</v>
+        <v>0.04815800254242805</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>233</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3775205610.693318</v>
+        <v>2561509355.611979</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1215473820540695</v>
+        <v>0.1408044004940587</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02818982241674882</v>
+        <v>0.03077386504610377</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>68</v>
+      </c>
+      <c r="J74" t="n">
+        <v>236</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2057437623.375007</v>
+        <v>1566025681.808986</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1627817500800726</v>
+        <v>0.1334989389980792</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03146687023585458</v>
+        <v>0.02500141553623053</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3123,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5228766035.026438</v>
+        <v>3647950102.470508</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07600385194202887</v>
+        <v>0.1156160151129976</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03108290720535206</v>
+        <v>0.02383965655423064</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>110</v>
+      </c>
+      <c r="J76" t="n">
+        <v>238</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2134663210.730931</v>
+        <v>1621264133.405662</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1629821206532984</v>
+        <v>0.1460906952106849</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0253396540260603</v>
+        <v>0.02327050278559179</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3735189474.57447</v>
+        <v>4064936732.578373</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1003085745696881</v>
+        <v>0.1246607181504653</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04322021744672958</v>
+        <v>0.04457634295719504</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>118</v>
+      </c>
+      <c r="J78" t="n">
+        <v>237</v>
+      </c>
+      <c r="K78" t="n">
+        <v>105.1895854926265</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1892926576.541193</v>
+        <v>1823494914.336703</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1443705879538177</v>
+        <v>0.1633349947969181</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03732037138437467</v>
+        <v>0.03926127559668389</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4469887124.312502</v>
+        <v>5106604784.347568</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0730517179087731</v>
+        <v>0.1111320458814522</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02386741047431187</v>
+        <v>0.03185276806541089</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>116</v>
+      </c>
+      <c r="J80" t="n">
+        <v>237</v>
+      </c>
+      <c r="K80" t="n">
+        <v>78.66421530836365</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4390924373.123604</v>
+        <v>3667991938.117246</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1059242241877827</v>
+        <v>0.1308412157994346</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0215801570295771</v>
+        <v>0.03039153975642811</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>109</v>
+      </c>
+      <c r="J81" t="n">
+        <v>238</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4347265199.395219</v>
+        <v>3819014872.525596</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1754011571866791</v>
+        <v>0.1381011075197477</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02615497994072918</v>
+        <v>0.02186909010915302</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>180</v>
+      </c>
+      <c r="J82" t="n">
+        <v>237</v>
+      </c>
+      <c r="K82" t="n">
+        <v>94.06588978908476</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1539090173.815942</v>
+        <v>2170880056.429381</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1231544811876495</v>
+        <v>0.119695293065008</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04420789561976046</v>
+        <v>0.04489339341684863</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2386310297.088471</v>
+        <v>2525983945.100428</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1085764959883593</v>
+        <v>0.1120901574850644</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03404412734874124</v>
+        <v>0.04614674713132125</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3206884431.292854</v>
+        <v>2909263036.794071</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1520240832450463</v>
+        <v>0.1288392785296991</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04681629466938533</v>
+        <v>0.05530762293591061</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>32</v>
+      </c>
+      <c r="J85" t="n">
+        <v>235</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2318293643.132301</v>
+        <v>1955712104.507097</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1679898519177476</v>
+        <v>0.1175498247494846</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02309842213768833</v>
+        <v>0.02362772087508986</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1392453548.88707</v>
+        <v>948893801.4393288</v>
       </c>
       <c r="F87" t="n">
-        <v>0.171347598422243</v>
+        <v>0.1893426068006505</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0391015836627032</v>
+        <v>0.0280848871979746</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3292281672.684705</v>
+        <v>3587507575.67626</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1771894234475124</v>
+        <v>0.1670933761376458</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03913372870086059</v>
+        <v>0.03572264862145103</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>34</v>
+      </c>
+      <c r="J88" t="n">
+        <v>238</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2843375385.380242</v>
+        <v>3323072963.634454</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1147705406765407</v>
+        <v>0.134902038778471</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0365060402680997</v>
+        <v>0.02580984203956242</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1884691907.480058</v>
+        <v>1734094891.90675</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1021661586687742</v>
+        <v>0.1303346889445646</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04552301304834536</v>
+        <v>0.05623921044675868</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1861070693.497042</v>
+        <v>1359611209.703995</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1892475437464166</v>
+        <v>0.1596194896543108</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04009443100519715</v>
+        <v>0.06138108144144373</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2279411852.605411</v>
+        <v>2870572128.648241</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06679636677149749</v>
+        <v>0.08833390143521203</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03577787591571475</v>
+        <v>0.04338520285458833</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4599584991.305407</v>
+        <v>4286979059.079828</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1289790098541553</v>
+        <v>0.1219320123455525</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03513881568199936</v>
+        <v>0.04818801815729053</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>105</v>
+      </c>
+      <c r="J93" t="n">
+        <v>238</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1732823786.825931</v>
+        <v>2198443955.086705</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1055683528906133</v>
+        <v>0.1143983087907177</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04092344528042713</v>
+        <v>0.04146800660031796</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3046311740.649722</v>
+        <v>3151610104.629755</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1043029843894454</v>
+        <v>0.1070691190998389</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0413932571328836</v>
+        <v>0.03580366034374706</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2115863585.960987</v>
+        <v>1951027775.032611</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1031074528325169</v>
+        <v>0.08823728850647675</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04383700778087225</v>
+        <v>0.04529975262744016</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4788389898.320827</v>
+        <v>3435592132.154752</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1647305112123418</v>
+        <v>0.1421772940640521</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01993790067948643</v>
+        <v>0.01786025681182856</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>115</v>
+      </c>
+      <c r="J97" t="n">
+        <v>236</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3760163793.729088</v>
+        <v>3290211428.881436</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1186484083075016</v>
+        <v>0.1252560958231602</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02207446099329292</v>
+        <v>0.03256252949055283</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>58</v>
+      </c>
+      <c r="J98" t="n">
+        <v>236</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2852836119.47002</v>
+        <v>2662451683.190891</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1361074642451187</v>
+        <v>0.09152833116120432</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02183128067412384</v>
+        <v>0.03056004759282172</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3458498231.309314</v>
+        <v>4705495218.187602</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1129535953561565</v>
+        <v>0.1252684012693406</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02031430803463382</v>
+        <v>0.02239218506856529</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>100</v>
+      </c>
+      <c r="J100" t="n">
+        <v>237</v>
+      </c>
+      <c r="K100" t="n">
+        <v>105.7572366578517</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2939972871.034768</v>
+        <v>3045571759.86675</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1917512174534359</v>
+        <v>0.220675863184158</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0582480805052829</v>
+        <v>0.04808748712896437</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
